--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Calculos_con_rec.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Calculos_con_rec.xlsx
@@ -11,11 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inicial" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diseno E" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Camara" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila semiesféric" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila semiesféric1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila semiesféric2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila plana sin aleta" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila plana sin aleta1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila plana sin aleta" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +54,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,6 +69,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -550,27 +613,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[[1.18169000e+02 3.55840000e+01 1.53710000e+01 9.98980000e+01]
- [3.01403195e+01 2.43817159e+01 2.25253690e+01 1.70000000e+01]
- [1.00000000e+02 3.01403195e+01 2.43817159e+01 2.25253690e+01]
- [6.50701598e+01 2.72610177e+01 2.34535424e+01 1.97626845e+01]
- [2.38882415e+02 2.95302937e+02 3.19639262e+02 4.41176000e+02]
- [1.02883830e+02 9.56079542e+01 9.54152464e+01 9.52636645e+01]
- [1.06004548e-02 7.18141983e-04 5.40764596e-04 4.10406764e-04]
+          <t>[[1.59069000e+02 1.65327000e+02 1.35330000e+01 3.36555000e+02]
+ [1.00000000e+02 1.00000000e+02 1.00000000e+02 1.70000000e+01]
+ [1.00000000e+02 1.00000000e+02 1.00000000e+02 1.00000000e+02]
+ [1.00000000e+02 1.00000000e+02 1.00000000e+02 5.85000000e+01]
+ [7.19999232e+01 7.19999232e+01 7.19999232e+01 4.41176000e+02]
+ [1.52571218e+02 1.52571218e+02 1.52571218e+02 1.00344956e+02]
+ [5.43106880e-02 5.43106880e-02 5.43106880e-02 6.83660092e-03]
  [5.54600000e-02 5.54600000e-02 5.54600000e-02 5.54600000e-02]
- [1.24876486e+03 1.07302447e+03 1.05474918e+03 1.03699595e+03]
- [2.54804039e+00 3.49629368e+00 3.59178516e+00 3.68435187e+00]
- [2.24920027e+03 2.26857376e+03 2.26908246e+03 2.26948243e+03]
- [2.41623412e-01 4.20873252e-01 4.39931783e-01 4.58472307e-01]
- [1.27985909e+00 1.46217607e+00 5.02711841e-01 1.30853636e+00]
- [9.23296953e+04 2.43363305e+04 3.05761646e+04 7.63433123e+04]
- [1.85201907e+02 1.00802066e+02 9.98666213e+01 1.00099226e+02]
- [2.16655646e+02 1.01711634e+02 1.12555834e+02 1.03746277e+02]]</t>
+ [1.36514880e+03 1.36514880e+03 1.36514880e+03 1.21958990e+03]
+ [1.67200000e+00 1.67200000e+00 1.67200000e+00 2.71282000e+00]
+ [2.10819366e+03 2.10819366e+03 2.10819366e+03 2.25599752e+03]
+ [1.56197893e-01 1.56197893e-01 1.56197893e-01 2.70393688e-01]
+ [1.20874102e+00 6.05644701e-01 7.41318124e-01 1.26764106e+00]
+ [1.31598909e+05 2.72976878e+05 1.82553206e+04 2.65497081e+05]
+ [5.54459806e+02 6.65114090e+02 3.60613399e+02 1.78893802e+02]
+ [5.71152590e+02 6.77961866e+02 3.68072236e+02 2.97017337e+02]]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[118.169  35.584  15.371  99.898]</t>
+          <t>[159.069 165.327  13.533 336.555]</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -671,7 +734,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Henry A.</t>
         </is>
       </c>
     </row>
@@ -689,7 +752,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hahernandez@agrosavia.co</t>
+          <t>s@s</t>
         </is>
       </c>
     </row>
@@ -707,7 +770,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>123456</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1627,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2.632</v>
+        <v>2.775</v>
       </c>
     </row>
     <row r="53">
@@ -1598,7 +1661,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>41.582</v>
+        <v>39.432</v>
       </c>
     </row>
     <row r="55">
@@ -2000,7 +2063,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>197.4</v>
+        <v>208.162</v>
       </c>
     </row>
     <row r="80">
@@ -2328,7 +2391,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>644.018</v>
+        <v>679.127</v>
       </c>
     </row>
     <row r="100">
@@ -2344,7 +2407,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.644</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="101">
@@ -2986,7 +3049,7 @@
         <v>1500</v>
       </c>
       <c r="H3" t="n">
-        <v>1300</v>
+        <v>1336</v>
       </c>
       <c r="I3" t="n">
         <v>1800</v>
@@ -2995,13 +3058,13 @@
         <v>1208</v>
       </c>
       <c r="K3" t="n">
-        <v>2614</v>
+        <v>2836</v>
       </c>
       <c r="L3" t="n">
         <v>1530</v>
       </c>
       <c r="M3" t="n">
-        <v>2050</v>
+        <v>2086</v>
       </c>
       <c r="N3" t="n">
         <v>750</v>
@@ -3025,444 +3088,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>601</v>
-      </c>
-      <c r="D4" t="n">
-        <v>350</v>
-      </c>
-      <c r="E4" t="n">
-        <v>900</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1350</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>601</v>
-      </c>
-      <c r="D4" t="n">
-        <v>308</v>
-      </c>
-      <c r="E4" t="n">
-        <v>900</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1350</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>601</v>
-      </c>
-      <c r="D4" t="n">
-        <v>350</v>
-      </c>
-      <c r="E4" t="n">
-        <v>900</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1350</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3598,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>601</v>
+        <v>465</v>
       </c>
       <c r="D4" t="n">
         <v>400</v>
@@ -3607,172 +3232,10 @@
         <v>1200</v>
       </c>
       <c r="F4" t="n">
-        <v>1650</v>
+        <v>1548</v>
       </c>
       <c r="G4" t="n">
-        <v>1540</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud de la falca</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>601</v>
-      </c>
-      <c r="D4" t="n">
-        <v>400</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1650</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
